--- a/mastertimeseries.xlsx
+++ b/mastertimeseries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A01770860\Box\software_and_calculations\python\jupyter_notebooks\emissions_web_interface\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A01770860\Box\software_and_calculations\python\python scripts\dataexplorerwebapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0B736B-9351-4F45-8E34-70F6ADE7FF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D23D8CC-0508-4B10-945A-FA245028948D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13965" yWindow="2370" windowWidth="29205" windowHeight="17520" xr2:uid="{D5F0BE14-B241-40AC-8C06-CEC5F7193EDC}"/>
+    <workbookView xWindow="3570" yWindow="1935" windowWidth="23115" windowHeight="17520" xr2:uid="{D5F0BE14-B241-40AC-8C06-CEC5F7193EDC}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -35,8 +35,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Seth Lyman</author>
+  </authors>
+  <commentList>
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{55BA480F-4638-404E-A4AD-76345A52078C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Seth Lyman:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+https://www.eia.gov/dnav/ng/hist/n3035ut3m.htm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{0740309D-5FEB-4B04-96B6-AF2B687C901A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Seth Lyman:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+https://www.eia.gov/dnav/pet/hist/LeafHandler.ashx?n=PET&amp;s=F004049__3&amp;f=M</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>basinwide_ch4_emiss_Mg-hr</t>
   </si>
@@ -103,12 +161,18 @@
   <si>
     <t>prodfromgaswells_thousbbleq_mnth</t>
   </si>
+  <si>
+    <t>Utahgasprice_dollperMCF</t>
+  </si>
+  <si>
+    <t>Utahcrudeprice_dollperBBL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +311,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -981,14 +1058,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D03C80-71F9-4EB2-A6BA-1DA1BCFF798F}">
-  <dimension ref="A1:V13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D03C80-71F9-4EB2-A6BA-1DA1BCFF798F}">
+  <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomRight" activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,7 +1081,7 @@
     <col min="22" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1071,8 +1148,14 @@
       <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2013</v>
       </c>
@@ -1130,8 +1213,14 @@
       <c r="V2" s="1">
         <v>7.1377979629051937</v>
       </c>
+      <c r="W2" s="1">
+        <v>5.214999999999999</v>
+      </c>
+      <c r="X2" s="1">
+        <v>84.702500000000001</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2014</v>
       </c>
@@ -1190,8 +1279,14 @@
       <c r="T3" s="1">
         <v>5213</v>
       </c>
+      <c r="W3" s="1">
+        <v>5.8858333333333333</v>
+      </c>
+      <c r="X3" s="1">
+        <v>79.110000000000014</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2015</v>
       </c>
@@ -1258,8 +1353,14 @@
       <c r="V4" s="1">
         <v>6.3507923614360493</v>
       </c>
+      <c r="W4" s="1">
+        <v>5.8908333333333331</v>
+      </c>
+      <c r="X4" s="1">
+        <v>40.118333333333332</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2016</v>
       </c>
@@ -1326,8 +1427,14 @@
       <c r="V5" s="1">
         <v>5.4794262873704156</v>
       </c>
+      <c r="W5" s="1">
+        <v>5.4483333333333333</v>
+      </c>
+      <c r="X5" s="1">
+        <v>36.996666666666663</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2017</v>
       </c>
@@ -1394,8 +1501,14 @@
       <c r="V6" s="1">
         <v>6.6278227675181132</v>
       </c>
+      <c r="W6" s="1">
+        <v>5.4858333333333347</v>
+      </c>
+      <c r="X6" s="1">
+        <v>44.310833333333328</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2018</v>
       </c>
@@ -1462,8 +1575,14 @@
       <c r="V7" s="1">
         <v>6.1820140364026175</v>
       </c>
+      <c r="W7" s="1">
+        <v>5.21</v>
+      </c>
+      <c r="X7" s="1">
+        <v>56.95333333333334</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2019</v>
       </c>
@@ -1530,8 +1649,14 @@
       <c r="V8" s="1">
         <v>6.0021746878986226</v>
       </c>
+      <c r="W8" s="1">
+        <v>4.9316666666666666</v>
+      </c>
+      <c r="X8" s="1">
+        <v>48.303333333333342</v>
+      </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2020</v>
       </c>
@@ -1598,8 +1723,14 @@
       <c r="V9" s="1">
         <v>5.4371299742612402</v>
       </c>
+      <c r="W9" s="1">
+        <v>5.0183333333333318</v>
+      </c>
+      <c r="X9" s="1">
+        <v>34.637499999999996</v>
+      </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2021</v>
       </c>
@@ -1666,8 +1797,14 @@
       <c r="V10" s="1">
         <v>6.1267625553416689</v>
       </c>
+      <c r="W10" s="1">
+        <v>5.4233333333333347</v>
+      </c>
+      <c r="X10" s="1">
+        <v>60.24916666666666</v>
+      </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2022</v>
       </c>
@@ -1734,8 +1871,14 @@
       <c r="V11" s="1">
         <v>5.279711652967916</v>
       </c>
+      <c r="W11" s="1">
+        <v>7.9741666666666662</v>
+      </c>
+      <c r="X11" s="1">
+        <v>81.140833333333333</v>
+      </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2023</v>
       </c>
@@ -1802,8 +1945,14 @@
       <c r="V12" s="1">
         <v>5.1815364777528758</v>
       </c>
+      <c r="W12" s="1">
+        <v>9.9150000000000009</v>
+      </c>
+      <c r="X12" s="1">
+        <v>66.517499999999998</v>
+      </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2024</v>
       </c>
@@ -1869,79 +2018,22 @@
       </c>
       <c r="V13" s="1">
         <v>3.6177460915166701</v>
+      </c>
+      <c r="W13" s="1">
+        <v>7.6291666666666664</v>
+      </c>
+      <c r="X13" s="1">
+        <v>62.831666666666671</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <FolderType xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <Invited_Members xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <AppVersion xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <CultureName xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <Owner xmlns="3ce45942-367e-4314-952d-7c668e098ffd">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Member_Groups xmlns="3ce45942-367e-4314-952d-7c668e098ffd">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Member_Groups>
-    <NotebookType xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <Leaders xmlns="3ce45942-367e-4314-952d-7c668e098ffd">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Leaders>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ce45942-367e-4314-952d-7c668e098ffd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Is_Collaboration_Space_Locked xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <TaxCatchAll xmlns="c851098d-0b10-4461-b48b-500106809d6f" xsi:nil="true"/>
-    <Has_Leaders_Only_SectionGroup xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <LMS_Mappings xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <Invited_Leaders xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <Distribution_Groups xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <Math_Settings xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <Templates xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <Members xmlns="3ce45942-367e-4314-952d-7c668e098ffd">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Members>
-    <Self_Registration_Enabled xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <TeamsChannelId xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002D39104AC29B3A48B83BCB1763577A03" ma:contentTypeVersion="38" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7d5785c1baf661393632a29063ff3749">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ce45942-367e-4314-952d-7c668e098ffd" xmlns:ns3="c851098d-0b10-4461-b48b-500106809d6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="31b8f9570e57107d7635a6ac45838676" ns2:_="" ns3:_="">
     <xsd:import namespace="3ce45942-367e-4314-952d-7c668e098ffd"/>
@@ -2384,32 +2476,71 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5FFF181-3C70-426E-96B1-3C3CCF4AFE43}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3ce45942-367e-4314-952d-7c668e098ffd"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="c851098d-0b10-4461-b48b-500106809d6f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F687B25-1726-4D5C-90B5-701BA1A42190}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <FolderType xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <Invited_Members xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <AppVersion xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <CultureName xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <Owner xmlns="3ce45942-367e-4314-952d-7c668e098ffd">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Member_Groups xmlns="3ce45942-367e-4314-952d-7c668e098ffd">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Member_Groups>
+    <NotebookType xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <Leaders xmlns="3ce45942-367e-4314-952d-7c668e098ffd">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Leaders>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ce45942-367e-4314-952d-7c668e098ffd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Is_Collaboration_Space_Locked xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <TaxCatchAll xmlns="c851098d-0b10-4461-b48b-500106809d6f" xsi:nil="true"/>
+    <Has_Leaders_Only_SectionGroup xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <LMS_Mappings xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <Invited_Leaders xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <Distribution_Groups xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <Math_Settings xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <Templates xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <Members xmlns="3ce45942-367e-4314-952d-7c668e098ffd">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Members>
+    <Self_Registration_Enabled xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <TeamsChannelId xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E680CDAA-F27E-4FDF-BFF3-DBFAFF064950}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2426,4 +2557,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F687B25-1726-4D5C-90B5-701BA1A42190}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5FFF181-3C70-426E-96B1-3C3CCF4AFE43}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3ce45942-367e-4314-952d-7c668e098ffd"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="c851098d-0b10-4461-b48b-500106809d6f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/mastertimeseries.xlsx
+++ b/mastertimeseries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A01770860\Box\software_and_calculations\python\python scripts\dataexplorerwebapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D23D8CC-0508-4B10-945A-FA245028948D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F20F6C-A902-4270-8347-E16B07476B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="1935" windowWidth="23115" windowHeight="17520" xr2:uid="{D5F0BE14-B241-40AC-8C06-CEC5F7193EDC}"/>
+    <workbookView xWindow="1440" yWindow="435" windowWidth="21810" windowHeight="18840" xr2:uid="{D5F0BE14-B241-40AC-8C06-CEC5F7193EDC}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -141,9 +141,6 @@
     <t>lowprodwells</t>
   </si>
   <si>
-    <t>emissintens_gas</t>
-  </si>
-  <si>
     <t>emissinens_totenergy</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t>Utahcrudeprice_dollperBBL</t>
+  </si>
+  <si>
+    <t>emissinens_gas</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1065,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W2" sqref="W2"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,7 +1083,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>8</v>
@@ -1146,13 +1146,13 @@
         <v>15</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -2034,6 +2034,70 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <FolderType xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <Invited_Members xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <AppVersion xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <CultureName xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <Owner xmlns="3ce45942-367e-4314-952d-7c668e098ffd">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Member_Groups xmlns="3ce45942-367e-4314-952d-7c668e098ffd">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Member_Groups>
+    <NotebookType xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <Leaders xmlns="3ce45942-367e-4314-952d-7c668e098ffd">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Leaders>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ce45942-367e-4314-952d-7c668e098ffd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Is_Collaboration_Space_Locked xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <TaxCatchAll xmlns="c851098d-0b10-4461-b48b-500106809d6f" xsi:nil="true"/>
+    <Has_Leaders_Only_SectionGroup xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <LMS_Mappings xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <Invited_Leaders xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <Distribution_Groups xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <Math_Settings xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <Templates xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <Members xmlns="3ce45942-367e-4314-952d-7c668e098ffd">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Members>
+    <Self_Registration_Enabled xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <TeamsChannelId xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002D39104AC29B3A48B83BCB1763577A03" ma:contentTypeVersion="38" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7d5785c1baf661393632a29063ff3749">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ce45942-367e-4314-952d-7c668e098ffd" xmlns:ns3="c851098d-0b10-4461-b48b-500106809d6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="31b8f9570e57107d7635a6ac45838676" ns2:_="" ns3:_="">
     <xsd:import namespace="3ce45942-367e-4314-952d-7c668e098ffd"/>
@@ -2476,71 +2540,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5FFF181-3C70-426E-96B1-3C3CCF4AFE43}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3ce45942-367e-4314-952d-7c668e098ffd"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="c851098d-0b10-4461-b48b-500106809d6f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <FolderType xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <Invited_Members xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <AppVersion xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <CultureName xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <Owner xmlns="3ce45942-367e-4314-952d-7c668e098ffd">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Member_Groups xmlns="3ce45942-367e-4314-952d-7c668e098ffd">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Member_Groups>
-    <NotebookType xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <Leaders xmlns="3ce45942-367e-4314-952d-7c668e098ffd">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Leaders>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ce45942-367e-4314-952d-7c668e098ffd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Is_Collaboration_Space_Locked xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <TaxCatchAll xmlns="c851098d-0b10-4461-b48b-500106809d6f" xsi:nil="true"/>
-    <Has_Leaders_Only_SectionGroup xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <LMS_Mappings xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <Invited_Leaders xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <Distribution_Groups xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <Math_Settings xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <Templates xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <Members xmlns="3ce45942-367e-4314-952d-7c668e098ffd">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Members>
-    <Self_Registration_Enabled xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <TeamsChannelId xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F687B25-1726-4D5C-90B5-701BA1A42190}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E680CDAA-F27E-4FDF-BFF3-DBFAFF064950}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2557,29 +2582,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F687B25-1726-4D5C-90B5-701BA1A42190}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5FFF181-3C70-426E-96B1-3C3CCF4AFE43}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3ce45942-367e-4314-952d-7c668e098ffd"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="c851098d-0b10-4461-b48b-500106809d6f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/mastertimeseries.xlsx
+++ b/mastertimeseries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A01770860\Box\software_and_calculations\python\python scripts\dataexplorerwebapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F20F6C-A902-4270-8347-E16B07476B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79758FFF-4983-46B5-B2CE-6ADCCC31E549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="435" windowWidth="21810" windowHeight="18840" xr2:uid="{D5F0BE14-B241-40AC-8C06-CEC5F7193EDC}"/>
+    <workbookView xWindow="18765" yWindow="990" windowWidth="27255" windowHeight="18840" xr2:uid="{D5F0BE14-B241-40AC-8C06-CEC5F7193EDC}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,32 @@
     <author>Seth Lyman</author>
   </authors>
   <commentList>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{55BA480F-4638-404E-A4AD-76345A52078C}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{4390699D-FB9C-4BB8-B806-CA64A671712A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Seth Lyman:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+=(B2*24*365.25)*82.5/1000000
+from Logan Mitchell, utah clean energy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{55BA480F-4638-404E-A4AD-76345A52078C}">
       <text>
         <r>
           <rPr>
@@ -65,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{0740309D-5FEB-4B04-96B6-AF2B687C901A}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{0740309D-5FEB-4B04-96B6-AF2B687C901A}">
       <text>
         <r>
           <rPr>
@@ -94,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>basinwide_ch4_emiss_Mg-hr</t>
   </si>
@@ -167,12 +192,15 @@
   <si>
     <t>emissinens_gas</t>
   </si>
+  <si>
+    <t>emisCO2eq20_millnMg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +353,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1059,13 +1100,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D03C80-71F9-4EB2-A6BA-1DA1BCFF798F}">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V1" sqref="V1"/>
+      <selection pane="bottomRight" activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,7 +1122,7 @@
     <col min="22" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1149,13 +1190,16 @@
         <v>23</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2013</v>
       </c>
@@ -1214,13 +1258,17 @@
         <v>7.1377979629051937</v>
       </c>
       <c r="W2" s="1">
+        <f>(B2*24*365.25)*82.5/1000000</f>
+        <v>39.803206409999994</v>
+      </c>
+      <c r="X2" s="1">
         <v>5.214999999999999</v>
       </c>
-      <c r="X2" s="1">
+      <c r="Y2" s="1">
         <v>84.702500000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2014</v>
       </c>
@@ -1279,14 +1327,14 @@
       <c r="T3" s="1">
         <v>5213</v>
       </c>
-      <c r="W3" s="1">
+      <c r="X3" s="1">
         <v>5.8858333333333333</v>
       </c>
-      <c r="X3" s="1">
+      <c r="Y3" s="1">
         <v>79.110000000000014</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2015</v>
       </c>
@@ -1354,13 +1402,17 @@
         <v>6.3507923614360493</v>
       </c>
       <c r="W4" s="1">
+        <f t="shared" ref="W3:W13" si="0">(B4*24*365.25)*82.5/1000000</f>
+        <v>30.373242614549998</v>
+      </c>
+      <c r="X4" s="1">
         <v>5.8908333333333331</v>
       </c>
-      <c r="X4" s="1">
+      <c r="Y4" s="1">
         <v>40.118333333333332</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2016</v>
       </c>
@@ -1428,13 +1480,17 @@
         <v>5.4794262873704156</v>
       </c>
       <c r="W5" s="1">
+        <f t="shared" si="0"/>
+        <v>23.284282729950004</v>
+      </c>
+      <c r="X5" s="1">
         <v>5.4483333333333333</v>
       </c>
-      <c r="X5" s="1">
+      <c r="Y5" s="1">
         <v>36.996666666666663</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2017</v>
       </c>
@@ -1502,13 +1558,17 @@
         <v>6.6278227675181132</v>
       </c>
       <c r="W6" s="1">
+        <f t="shared" si="0"/>
+        <v>24.407954193149997</v>
+      </c>
+      <c r="X6" s="1">
         <v>5.4858333333333347</v>
       </c>
-      <c r="X6" s="1">
+      <c r="Y6" s="1">
         <v>44.310833333333328</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2018</v>
       </c>
@@ -1576,13 +1636,17 @@
         <v>6.1820140364026175</v>
       </c>
       <c r="W7" s="1">
+        <f t="shared" si="0"/>
+        <v>21.4680146472</v>
+      </c>
+      <c r="X7" s="1">
         <v>5.21</v>
       </c>
-      <c r="X7" s="1">
+      <c r="Y7" s="1">
         <v>56.95333333333334</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2019</v>
       </c>
@@ -1650,13 +1714,17 @@
         <v>6.0021746878986226</v>
       </c>
       <c r="W8" s="1">
+        <f t="shared" si="0"/>
+        <v>19.172236405655276</v>
+      </c>
+      <c r="X8" s="1">
         <v>4.9316666666666666</v>
       </c>
-      <c r="X8" s="1">
+      <c r="Y8" s="1">
         <v>48.303333333333342</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2020</v>
       </c>
@@ -1724,13 +1792,17 @@
         <v>5.4371299742612402</v>
       </c>
       <c r="W9" s="1">
+        <f t="shared" si="0"/>
+        <v>15.378155902071928</v>
+      </c>
+      <c r="X9" s="1">
         <v>5.0183333333333318</v>
       </c>
-      <c r="X9" s="1">
+      <c r="Y9" s="1">
         <v>34.637499999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2021</v>
       </c>
@@ -1798,13 +1870,17 @@
         <v>6.1267625553416689</v>
       </c>
       <c r="W10" s="1">
+        <f t="shared" si="0"/>
+        <v>17.300180571624601</v>
+      </c>
+      <c r="X10" s="1">
         <v>5.4233333333333347</v>
       </c>
-      <c r="X10" s="1">
+      <c r="Y10" s="1">
         <v>60.24916666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2022</v>
       </c>
@@ -1872,13 +1948,17 @@
         <v>5.279711652967916</v>
       </c>
       <c r="W11" s="1">
+        <f t="shared" si="0"/>
+        <v>16.804511864499933</v>
+      </c>
+      <c r="X11" s="1">
         <v>7.9741666666666662</v>
       </c>
-      <c r="X11" s="1">
+      <c r="Y11" s="1">
         <v>81.140833333333333</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2023</v>
       </c>
@@ -1946,13 +2026,17 @@
         <v>5.1815364777528758</v>
       </c>
       <c r="W12" s="1">
+        <f t="shared" si="0"/>
+        <v>18.740881754732115</v>
+      </c>
+      <c r="X12" s="1">
         <v>9.9150000000000009</v>
       </c>
-      <c r="X12" s="1">
+      <c r="Y12" s="1">
         <v>66.517499999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2024</v>
       </c>
@@ -2020,9 +2104,13 @@
         <v>3.6177460915166701</v>
       </c>
       <c r="W13" s="1">
+        <f t="shared" si="0"/>
+        <v>14.138462250000002</v>
+      </c>
+      <c r="X13" s="1">
         <v>7.6291666666666664</v>
       </c>
-      <c r="X13" s="1">
+      <c r="Y13" s="1">
         <v>62.831666666666671</v>
       </c>
     </row>
@@ -2034,70 +2122,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <FolderType xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <Invited_Members xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <AppVersion xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <CultureName xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <Owner xmlns="3ce45942-367e-4314-952d-7c668e098ffd">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Member_Groups xmlns="3ce45942-367e-4314-952d-7c668e098ffd">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Member_Groups>
-    <NotebookType xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <Leaders xmlns="3ce45942-367e-4314-952d-7c668e098ffd">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Leaders>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ce45942-367e-4314-952d-7c668e098ffd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Is_Collaboration_Space_Locked xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <TaxCatchAll xmlns="c851098d-0b10-4461-b48b-500106809d6f" xsi:nil="true"/>
-    <Has_Leaders_Only_SectionGroup xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <LMS_Mappings xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <Invited_Leaders xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <Distribution_Groups xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <Math_Settings xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <Templates xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <Members xmlns="3ce45942-367e-4314-952d-7c668e098ffd">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Members>
-    <Self_Registration_Enabled xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <TeamsChannelId xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002D39104AC29B3A48B83BCB1763577A03" ma:contentTypeVersion="38" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7d5785c1baf661393632a29063ff3749">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ce45942-367e-4314-952d-7c668e098ffd" xmlns:ns3="c851098d-0b10-4461-b48b-500106809d6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="31b8f9570e57107d7635a6ac45838676" ns2:_="" ns3:_="">
     <xsd:import namespace="3ce45942-367e-4314-952d-7c668e098ffd"/>
@@ -2540,32 +2564,71 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5FFF181-3C70-426E-96B1-3C3CCF4AFE43}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3ce45942-367e-4314-952d-7c668e098ffd"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="c851098d-0b10-4461-b48b-500106809d6f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F687B25-1726-4D5C-90B5-701BA1A42190}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <FolderType xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <Invited_Members xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <AppVersion xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <CultureName xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <Owner xmlns="3ce45942-367e-4314-952d-7c668e098ffd">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Member_Groups xmlns="3ce45942-367e-4314-952d-7c668e098ffd">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Member_Groups>
+    <NotebookType xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <Leaders xmlns="3ce45942-367e-4314-952d-7c668e098ffd">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Leaders>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ce45942-367e-4314-952d-7c668e098ffd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Is_Collaboration_Space_Locked xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <TaxCatchAll xmlns="c851098d-0b10-4461-b48b-500106809d6f" xsi:nil="true"/>
+    <Has_Leaders_Only_SectionGroup xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <LMS_Mappings xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <Invited_Leaders xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <Distribution_Groups xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <Math_Settings xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <Templates xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <Members xmlns="3ce45942-367e-4314-952d-7c668e098ffd">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Members>
+    <Self_Registration_Enabled xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <TeamsChannelId xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="3ce45942-367e-4314-952d-7c668e098ffd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E680CDAA-F27E-4FDF-BFF3-DBFAFF064950}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2582,4 +2645,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F687B25-1726-4D5C-90B5-701BA1A42190}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5FFF181-3C70-426E-96B1-3C3CCF4AFE43}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3ce45942-367e-4314-952d-7c668e098ffd"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="c851098d-0b10-4461-b48b-500106809d6f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>